--- a/automation.projects.keywordframework/src/test/java/automation/projects/keywordframework/dataEngine/DataEngine.xlsx
+++ b/automation.projects.keywordframework/src/test/java/automation/projects/keywordframework/dataEngine/DataEngine.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="4905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="TC_02_XYZ" sheetId="3" r:id="rId2"/>
+    <sheet name="TC_02_XYZ_Customer" sheetId="3" r:id="rId2"/>
+    <sheet name="TC_01_XYZ_Manager" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J14"/>
+  <oleSize ref="A4:F17"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -35,9 +36,6 @@
     <t>Results</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -143,134 +141,153 @@
     <t>TS_22</t>
   </si>
   <si>
+    <t>TC_02_XYZ</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Click Customer Login button</t>
+  </si>
+  <si>
+    <t>btn_CustomerLogin</t>
+  </si>
+  <si>
+    <t>Select from dropdown "Your Name"</t>
+  </si>
+  <si>
+    <t>Neville Longbottom</t>
+  </si>
+  <si>
+    <t>select_YourName</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Click login button</t>
+  </si>
+  <si>
+    <t>btn_Login</t>
+  </si>
+  <si>
+    <t>Verify user gets Welcome message</t>
+  </si>
+  <si>
+    <t>span_Welcom</t>
+  </si>
+  <si>
+    <t>assert_Data</t>
+  </si>
+  <si>
+    <t>Click on deposit button</t>
+  </si>
+  <si>
+    <t>btn_Deposit</t>
+  </si>
+  <si>
+    <t>Input amount to be deposited</t>
+  </si>
+  <si>
+    <t>txt_DepositAmount</t>
+  </si>
+  <si>
+    <t>Click on deposit submit button</t>
+  </si>
+  <si>
+    <t>btn_DepositSubmit</t>
+  </si>
+  <si>
+    <t>Verify message Deposit Successful appears</t>
+  </si>
+  <si>
+    <t>Get  balance after deposit</t>
+  </si>
+  <si>
+    <t>Verify balance is increased by deposited amount</t>
+  </si>
+  <si>
+    <t>Click on transaction button</t>
+  </si>
+  <si>
+    <t>Click on Reset button</t>
+  </si>
+  <si>
+    <t>Verify there is no row in transaction table</t>
+  </si>
+  <si>
+    <t>Click on button "Back"</t>
+  </si>
+  <si>
+    <t>Get initial balance from Balance field</t>
+  </si>
+  <si>
+    <t>Verify 1 row is added in transaction table</t>
+  </si>
+  <si>
+    <t>Verify Amount is equal to deposited amount</t>
+  </si>
+  <si>
+    <t>Verify Transaction type is "credit"</t>
+  </si>
+  <si>
+    <t>Click on "Back" button</t>
+  </si>
+  <si>
+    <t>Click on Withdrawl button</t>
+  </si>
+  <si>
+    <t>TS_23</t>
+  </si>
+  <si>
+    <t>TS_24</t>
+  </si>
+  <si>
+    <t>Input amount to be withdrawn</t>
+  </si>
+  <si>
+    <t>TS_25</t>
+  </si>
+  <si>
+    <t>TC_02_XYZ_Customer</t>
+  </si>
+  <si>
+    <t>TC_01_XYZ_Manager</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>btn_Transactions</t>
+  </si>
+  <si>
+    <t>btn_Reset</t>
+  </si>
+  <si>
+    <t>tbl_Transactions</t>
+  </si>
+  <si>
+    <t>assert_EmptyTable</t>
+  </si>
+  <si>
+    <t>assert_Table</t>
+  </si>
+  <si>
+    <t>Verify transaction table data</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>Error Screenshot</t>
-  </si>
-  <si>
-    <t>TC_02_XYZ</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>Click Customer Login button</t>
-  </si>
-  <si>
-    <t>btn_CustomerLogin</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Select from dropdown "Your Name"</t>
-  </si>
-  <si>
-    <t>Neville Longbottom</t>
-  </si>
-  <si>
-    <t>select_YourName</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>Click login button</t>
-  </si>
-  <si>
-    <t>btn_Login</t>
-  </si>
-  <si>
-    <t>Verify user gets Welcome message</t>
-  </si>
-  <si>
-    <t>span_Welcom</t>
-  </si>
-  <si>
-    <t>assert_Data</t>
-  </si>
-  <si>
-    <t>Click on deposit button</t>
-  </si>
-  <si>
-    <t>btn_Deposit</t>
-  </si>
-  <si>
-    <t>Input amount to be deposited</t>
-  </si>
-  <si>
-    <t>txt_DepositAmount</t>
-  </si>
-  <si>
-    <t>Click on deposit submit button</t>
-  </si>
-  <si>
-    <t>btn_DepositSubmit</t>
-  </si>
-  <si>
-    <t>Verify message Deposit Successful appears</t>
-  </si>
-  <si>
-    <t>Get  balance after deposit</t>
-  </si>
-  <si>
-    <t>Verify balance is increased by deposited amount</t>
-  </si>
-  <si>
-    <t>Click on transaction button</t>
-  </si>
-  <si>
-    <t>Click on Reset button</t>
-  </si>
-  <si>
-    <t>Verify there is no row in transaction table</t>
-  </si>
-  <si>
-    <t>Click on button "Back"</t>
-  </si>
-  <si>
-    <t>Get initial balance from Balance field</t>
-  </si>
-  <si>
-    <t>Verify 1 row is added in transaction table</t>
-  </si>
-  <si>
-    <t>Verify Amount is equal to deposited amount</t>
-  </si>
-  <si>
-    <t>Verify Transaction type is "credit"</t>
-  </si>
-  <si>
-    <t>Click on "Back" button</t>
-  </si>
-  <si>
-    <t>Click on Withdrawl button</t>
-  </si>
-  <si>
-    <t>TS_23</t>
-  </si>
-  <si>
-    <t>TS_24</t>
-  </si>
-  <si>
-    <t>Input amount to be withdrawn</t>
-  </si>
-  <si>
-    <t>TS_25</t>
-  </si>
-  <si>
-    <t>TC_01_ABC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,40 +335,82 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -385,12 +444,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,21 +772,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,32 +800,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -768,21 +827,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="49.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="24.0" collapsed="true"/>
+    <col min="7" max="7" style="5" width="9.140625" collapsed="true"/>
+    <col min="8" max="9" style="5" width="9.140625" collapsed="true"/>
+    <col min="10" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -790,439 +851,354 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="H2" t="s" s="9">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="10">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="H4" t="s" s="11">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="H5" t="s" s="12">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="H6" t="s" s="13">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="H7" t="s" s="14">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s" s="15">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s" s="16">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s" s="17">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s" s="18">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s" s="19">
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1000</v>
-      </c>
-    </row>
+        <v>83</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s" s="20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H14" t="s" s="21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
@@ -1231,7 +1207,360 @@
     <hyperlink ref="H5" r:id="rId4"/>
     <hyperlink ref="H6" r:id="rId5"/>
     <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="15.7109375" collapsed="true"/>
+    <col min="6" max="7" style="5" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="15.7109375" collapsed="true"/>
+    <col min="9" max="16384" style="5" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>